--- a/src/modules/respuestas/respuestas.xlsx
+++ b/src/modules/respuestas/respuestas.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Respuestas"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -391,10 +391,10 @@
         <v>Nombre completo</v>
       </c>
       <c r="B1" t="str">
+        <v>Telefono</v>
+      </c>
+      <c r="C1" t="str">
         <v>Email</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Telefono</v>
       </c>
     </row>
     <row r="2">
@@ -430,6 +430,204 @@
         <v>sebastianlube@gmail.com</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>sebastianlube@gmail.com</v>
+      </c>
+      <c r="B5" t="str">
+        <v>12341234</v>
+      </c>
+      <c r="C5" t="str">
+        <v>sebalube</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>sebalube</v>
+      </c>
+      <c r="B6" t="str">
+        <v>sebastianlube@gmail.com</v>
+      </c>
+      <c r="C6" t="str">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>sebalube</v>
+      </c>
+      <c r="B7" t="str">
+        <v>12341234</v>
+      </c>
+      <c r="C7" t="str">
+        <v>sebastianlube@gmail.com</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>SebaLube</v>
+      </c>
+      <c r="B8" t="str">
+        <v>12344444</v>
+      </c>
+      <c r="C8" t="str">
+        <v>sebastian.luberriaga@tiarg.com.ar</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B9" t="str">
+        <v>12341234</v>
+      </c>
+      <c r="C9" t="str">
+        <v>asd@asd.asd</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B10" t="str">
+        <v>asdasdasd</v>
+      </c>
+      <c r="C10" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>rerererere</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>rerererere</v>
+      </c>
+      <c r="B12" t="str">
+        <v>12341234</v>
+      </c>
+      <c r="C12" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>rerererere</v>
+      </c>
+      <c r="B13" t="str">
+        <v>12341234</v>
+      </c>
+      <c r="C13" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B14" t="str">
+        <v>asd</v>
+      </c>
+      <c r="C14" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B15" t="str">
+        <v>asd</v>
+      </c>
+      <c r="C15" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B16" t="str">
+        <v>asd</v>
+      </c>
+      <c r="C16" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B17" t="str">
+        <v>asd</v>
+      </c>
+      <c r="C17" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B18" t="str">
+        <v>333333333333</v>
+      </c>
+      <c r="C18" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B19" t="str">
+        <v>333333333333</v>
+      </c>
+      <c r="C19" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B20" t="str">
+        <v>333333333333</v>
+      </c>
+      <c r="C20" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>asd</v>
+      </c>
+      <c r="B21" t="str">
+        <v>123123123</v>
+      </c>
+      <c r="C21" t="str">
+        <v>sebastian_lube@live.com.ar</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Sebastian Eusebuio Heraldo Luberriaga</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0303456</v>
+      </c>
+      <c r="C22" t="str">
+        <v>sebastian.luberriaga@tiarg.com.ar</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>